--- a/TODO/Marketing.xlsx
+++ b/TODO/Marketing.xlsx
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,9 +271,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,30 +304,6 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,6 +315,39 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,24 +680,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="7" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="7"/>
-    <col min="14" max="14" width="11.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="6" customWidth="1"/>
+    <col min="11" max="13" width="9.140625" style="6"/>
+    <col min="14" max="14" width="11.42578125" style="6" customWidth="1"/>
     <col min="15" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="23.5703125" style="1" customWidth="1"/>
     <col min="17" max="20" width="13" style="1" customWidth="1"/>
@@ -699,16 +705,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
@@ -729,105 +735,105 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="25">
+      <c r="Q2" s="16">
         <v>43009</v>
       </c>
-      <c r="R2" s="25">
+      <c r="R2" s="16">
         <v>43101</v>
       </c>
-      <c r="S2" s="25">
+      <c r="S2" s="16">
         <v>43191</v>
       </c>
-      <c r="T2" s="25">
+      <c r="T2" s="16">
         <v>43282</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="20">
         <f t="shared" ref="C3:C10" si="0">N3</f>
         <v>18400</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="20">
         <v>16250</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="21">
         <v>9.85</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="22">
         <f>E3*D3</f>
         <v>160062.5</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="20">
         <f t="shared" ref="G3:G10" si="1">(C3/F3)*365</f>
         <v>41.958609918000782</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="3" t="str">
+      <c r="H3" s="13"/>
+      <c r="I3" s="27" t="str">
         <f>B3</f>
         <v>Facebook</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="29">
         <v>4600</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="29">
         <v>4600</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="29">
         <v>4600</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="29">
         <v>4600</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="29">
         <f t="shared" ref="N3:N10" si="2">SUM(J3:M3)</f>
         <v>18400</v>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="27" t="str">
         <f>B3</f>
         <v>Facebook</v>
       </c>
@@ -845,50 +851,50 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="20">
         <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="20">
         <v>16250</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="21">
         <v>9.85</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="22">
         <f t="shared" ref="F4:F10" si="3">E4*D4</f>
         <v>160062.5</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="20">
         <f t="shared" si="1"/>
         <v>41.958609918000782</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="3" t="str">
+      <c r="H4" s="13"/>
+      <c r="I4" s="27" t="str">
         <f t="shared" ref="I4:I10" si="4">B4</f>
         <v>Twitter</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="29">
         <v>4600</v>
       </c>
-      <c r="K4" s="23">
+      <c r="K4" s="29">
         <v>4600</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="29">
         <v>4600</v>
       </c>
-      <c r="M4" s="23">
+      <c r="M4" s="29">
         <v>4600</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="29">
         <f t="shared" si="2"/>
         <v>18400</v>
       </c>
-      <c r="P4" s="3" t="str">
+      <c r="P4" s="27" t="str">
         <f t="shared" ref="P4:P12" si="5">B4</f>
         <v>Twitter</v>
       </c>
@@ -906,50 +912,50 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="20">
         <v>16250</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="21">
         <v>9.85</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="22">
         <f t="shared" si="3"/>
         <v>160062.5</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="20">
         <f t="shared" si="1"/>
         <v>41.958609918000782</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="3" t="str">
+      <c r="H5" s="13"/>
+      <c r="I5" s="27" t="str">
         <f t="shared" si="4"/>
         <v>Reddit</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="29">
         <v>4600</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="29">
         <v>4600</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="29">
         <v>4600</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="29">
         <v>4600</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="29">
         <f t="shared" si="2"/>
         <v>18400</v>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Reddit</v>
       </c>
@@ -967,50 +973,50 @@
       </c>
     </row>
     <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>18400</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="20">
         <v>16250</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="21">
         <v>9.85</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="22">
         <f t="shared" si="3"/>
         <v>160062.5</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="20">
         <f t="shared" si="1"/>
         <v>41.958609918000782</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="3" t="str">
+      <c r="H6" s="13"/>
+      <c r="I6" s="27" t="str">
         <f t="shared" si="4"/>
         <v>LinkedIn</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="29">
         <v>4600</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="29">
         <v>4600</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="29">
         <v>4600</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="29">
         <v>4600</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="29">
         <f t="shared" si="2"/>
         <v>18400</v>
       </c>
-      <c r="P6" s="3" t="str">
+      <c r="P6" s="27" t="str">
         <f t="shared" si="5"/>
         <v>LinkedIn</v>
       </c>
@@ -1028,50 +1034,50 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="20">
         <v>20000</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="21">
         <v>9.85</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="22">
         <f t="shared" si="3"/>
         <v>197000</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
         <v>14.82233502538071</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="3" t="str">
+      <c r="H7" s="13"/>
+      <c r="I7" s="27" t="str">
         <f t="shared" si="4"/>
         <v>Bitcoin conference</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="29">
         <v>2000</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="29">
         <v>2000</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="29">
         <v>2000</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="29">
         <v>2000</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="29">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="P7" s="3" t="str">
+      <c r="P7" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Bitcoin conference</v>
       </c>
@@ -1089,50 +1095,50 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="20">
         <v>2500</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="21">
         <v>9.85</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="22">
         <f t="shared" si="3"/>
         <v>24625</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="20">
         <f t="shared" si="1"/>
         <v>296.4467005076142</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="3" t="str">
+      <c r="H8" s="13"/>
+      <c r="I8" s="27" t="str">
         <f t="shared" si="4"/>
         <v>Magazine</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="29">
         <v>5000</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="29">
         <v>5000</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="29">
         <v>5000</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="29">
         <v>5000</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="29">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="P8" s="3" t="str">
+      <c r="P8" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Magazine</v>
       </c>
@@ -1150,50 +1156,50 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="20">
         <v>2500</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="21">
         <v>9.85</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="22">
         <f t="shared" si="3"/>
         <v>24625</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="20">
         <f t="shared" si="1"/>
         <v>296.4467005076142</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="3" t="str">
+      <c r="H9" s="13"/>
+      <c r="I9" s="27" t="str">
         <f t="shared" si="4"/>
         <v>News paper</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="29">
         <v>5000</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="29">
         <v>5000</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="29">
         <v>5000</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="29">
         <v>5000</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="29">
         <f t="shared" si="2"/>
         <v>20000</v>
       </c>
-      <c r="P9" s="3" t="str">
+      <c r="P9" s="27" t="str">
         <f t="shared" si="5"/>
         <v>News paper</v>
       </c>
@@ -1211,50 +1217,50 @@
       </c>
     </row>
     <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="20">
         <v>10000</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="21">
         <v>9.85</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="22">
         <f t="shared" si="3"/>
         <v>98500</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="20">
         <f t="shared" si="1"/>
         <v>14.82233502538071</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="3" t="str">
+      <c r="H10" s="13"/>
+      <c r="I10" s="27" t="str">
         <f t="shared" si="4"/>
         <v>Email</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="29">
         <v>1000</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="29">
         <v>1000</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="29">
         <v>1000</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M10" s="29">
         <v>1000</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="29">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="P10" s="3" t="str">
+      <c r="P10" s="27" t="str">
         <f t="shared" si="5"/>
         <v>Email</v>
       </c>
@@ -1272,49 +1278,49 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="23">
         <f>SUM(C3:C10)</f>
         <v>125600</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="23">
         <f>SUM(D3:D10)</f>
         <v>100000</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="24">
         <f>SUM(F3:F10)</f>
         <v>985000</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="5" t="s">
+      <c r="H11" s="13"/>
+      <c r="I11" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="30">
         <f>SUM(J3:J10)</f>
         <v>31400</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="30">
         <f>SUM(K3:K10)</f>
         <v>31400</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="30">
         <f>SUM(L3:L10)</f>
         <v>31400</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="30">
         <f>SUM(M3:M10)</f>
         <v>31400</v>
       </c>
-      <c r="N11" s="24">
+      <c r="N11" s="30">
         <f>SUM(N3:N10)</f>
         <v>125600</v>
       </c>
@@ -1324,16 +1330,16 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="27" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="14"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="13"/>
       <c r="P12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>*Average annual revenue per user based on data from www.coinbase.com</v>
@@ -1343,7 +1349,7 @@
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>75000</v>
       </c>
     </row>
@@ -1351,7 +1357,7 @@
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <f>C13/4</f>
         <v>18750</v>
       </c>
@@ -1360,14 +1366,14 @@
       <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <f>C14/4</f>
         <v>4687.5</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <f>C11/12</f>
         <v>10466.666666666666</v>
       </c>
@@ -1376,7 +1382,7 @@
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>100000</v>
       </c>
     </row>
@@ -1384,7 +1390,7 @@
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <f>C$17*D19</f>
         <v>65000</v>
       </c>
@@ -1400,7 +1406,7 @@
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <f>C$17*D20</f>
         <v>20000</v>
       </c>
@@ -1412,7 +1418,7 @@
       <c r="B21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <f>C$17*D21</f>
         <v>5000</v>
       </c>
@@ -1424,7 +1430,7 @@
       <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <f>C$17*D22</f>
         <v>10000</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>985500</v>
       </c>
     </row>
@@ -1450,7 +1456,7 @@
       <c r="B26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <f>C17</f>
         <v>100000</v>
       </c>
@@ -1459,7 +1465,7 @@
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <f>C25/C26</f>
         <v>9.8550000000000004</v>
       </c>
@@ -1468,11 +1474,11 @@
       <c r="B30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="17">
         <f>C28/12</f>
         <v>0.82125000000000004</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>9.85</v>
       </c>
     </row>
@@ -1480,14 +1486,14 @@
       <c r="B32" s="1">
         <v>1</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>8333.3333333333339</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <f>C32</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <f>D32*$C$30</f>
         <v>6843.7500000000009</v>
       </c>
@@ -1496,15 +1502,15 @@
       <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f t="shared" ref="C33:C43" si="6">C32</f>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <f t="shared" ref="D33:D43" si="7">D32+C33</f>
         <v>16666.666666666668</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <f t="shared" ref="E33:E43" si="8">D33*$C$30</f>
         <v>13687.500000000002</v>
       </c>
@@ -1513,15 +1519,15 @@
       <c r="B34" s="1">
         <v>3</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <f t="shared" si="7"/>
         <v>25000</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <f t="shared" si="8"/>
         <v>20531.25</v>
       </c>
@@ -1530,15 +1536,15 @@
       <c r="B35" s="1">
         <v>4</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <f t="shared" si="7"/>
         <v>33333.333333333336</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <f t="shared" si="8"/>
         <v>27375.000000000004</v>
       </c>
@@ -1547,15 +1553,15 @@
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <f t="shared" si="7"/>
         <v>41666.666666666672</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <f t="shared" si="8"/>
         <v>34218.750000000007</v>
       </c>
@@ -1564,15 +1570,15 @@
       <c r="B37" s="1">
         <v>6</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <f t="shared" si="7"/>
         <v>50000.000000000007</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <f t="shared" si="8"/>
         <v>41062.500000000007</v>
       </c>
@@ -1581,15 +1587,15 @@
       <c r="B38" s="1">
         <v>7</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <f t="shared" si="7"/>
         <v>58333.333333333343</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <f t="shared" si="8"/>
         <v>47906.250000000007</v>
       </c>
@@ -1598,15 +1604,15 @@
       <c r="B39" s="1">
         <v>8</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <f t="shared" si="7"/>
         <v>66666.666666666672</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <f t="shared" si="8"/>
         <v>54750.000000000007</v>
       </c>
@@ -1615,15 +1621,15 @@
       <c r="B40" s="1">
         <v>9</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <f t="shared" si="7"/>
         <v>75000</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <f t="shared" si="8"/>
         <v>61593.75</v>
       </c>
@@ -1632,15 +1638,15 @@
       <c r="B41" s="1">
         <v>10</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <f t="shared" si="7"/>
         <v>83333.333333333328</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <f t="shared" si="8"/>
         <v>68437.5</v>
       </c>
@@ -1649,15 +1655,15 @@
       <c r="B42" s="1">
         <v>11</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <f t="shared" si="7"/>
         <v>91666.666666666657</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <f t="shared" si="8"/>
         <v>75281.25</v>
       </c>
@@ -1666,21 +1672,21 @@
       <c r="B43" s="1">
         <v>12</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <f t="shared" si="6"/>
         <v>8333.3333333333339</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <f t="shared" si="7"/>
         <v>99999.999999999985</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <f t="shared" si="8"/>
         <v>82124.999999999985</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <f>SUM(E32:E43)</f>
         <v>533812.5</v>
       </c>
@@ -1689,15 +1695,15 @@
       <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <f>C43*0.5</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <f>D43+C46</f>
         <v>104166.66666666666</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <f t="shared" ref="E46:E47" si="9">D46*$C$30</f>
         <v>85546.875</v>
       </c>
@@ -1706,15 +1712,15 @@
       <c r="B47" s="1">
         <v>2</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <f>C46</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D47" s="7">
-        <f>D46+C47</f>
+      <c r="D47" s="6">
+        <f t="shared" ref="D47:D57" si="10">D46+C47</f>
         <v>108333.33333333333</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <f t="shared" si="9"/>
         <v>88968.75</v>
       </c>
@@ -1723,16 +1729,16 @@
       <c r="B48" s="1">
         <v>3</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <f>C47</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D48" s="7">
-        <f>D47+C48</f>
+      <c r="D48" s="6">
+        <f t="shared" si="10"/>
         <v>112500</v>
       </c>
-      <c r="E48" s="7">
-        <f t="shared" ref="E48:E60" si="10">D48*$C$30</f>
+      <c r="E48" s="6">
+        <f t="shared" ref="E48:E60" si="11">D48*$C$30</f>
         <v>92390.625</v>
       </c>
     </row>
@@ -1740,16 +1746,16 @@
       <c r="B49" s="1">
         <v>4</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <f>C48</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D49" s="7">
-        <f>D48+C49</f>
+      <c r="D49" s="6">
+        <f t="shared" si="10"/>
         <v>116666.66666666667</v>
       </c>
-      <c r="E49" s="7">
-        <f t="shared" si="10"/>
+      <c r="E49" s="6">
+        <f t="shared" si="11"/>
         <v>95812.500000000015</v>
       </c>
     </row>
@@ -1757,16 +1763,16 @@
       <c r="B50" s="1">
         <v>5</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <f>C49</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D50" s="7">
-        <f>D49+C50</f>
+      <c r="D50" s="6">
+        <f t="shared" si="10"/>
         <v>120833.33333333334</v>
       </c>
-      <c r="E50" s="7">
-        <f t="shared" si="10"/>
+      <c r="E50" s="6">
+        <f t="shared" si="11"/>
         <v>99234.375000000015</v>
       </c>
     </row>
@@ -1774,16 +1780,16 @@
       <c r="B51" s="1">
         <v>6</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <f>C50</f>
         <v>4166.666666666667</v>
       </c>
-      <c r="D51" s="7">
-        <f>D50+C51</f>
+      <c r="D51" s="6">
+        <f t="shared" si="10"/>
         <v>125000.00000000001</v>
       </c>
-      <c r="E51" s="7">
-        <f t="shared" si="10"/>
+      <c r="E51" s="6">
+        <f t="shared" si="11"/>
         <v>102656.25000000001</v>
       </c>
     </row>
@@ -1791,16 +1797,16 @@
       <c r="B52" s="1">
         <v>7</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <f>C51*0.5</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D52" s="7">
-        <f>D51+C52</f>
+      <c r="D52" s="6">
+        <f t="shared" si="10"/>
         <v>127083.33333333334</v>
       </c>
-      <c r="E52" s="7">
-        <f t="shared" si="10"/>
+      <c r="E52" s="6">
+        <f t="shared" si="11"/>
         <v>104367.18750000001</v>
       </c>
     </row>
@@ -1808,16 +1814,16 @@
       <c r="B53" s="1">
         <v>8</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <f>C52</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D53" s="7">
-        <f>D52+C53</f>
+      <c r="D53" s="6">
+        <f t="shared" si="10"/>
         <v>129166.66666666667</v>
       </c>
-      <c r="E53" s="7">
-        <f t="shared" si="10"/>
+      <c r="E53" s="6">
+        <f t="shared" si="11"/>
         <v>106078.12500000001</v>
       </c>
     </row>
@@ -1825,16 +1831,16 @@
       <c r="B54" s="1">
         <v>9</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <f>C53</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D54" s="7">
-        <f>D53+C54</f>
+      <c r="D54" s="6">
+        <f t="shared" si="10"/>
         <v>131250</v>
       </c>
-      <c r="E54" s="7">
-        <f t="shared" si="10"/>
+      <c r="E54" s="6">
+        <f t="shared" si="11"/>
         <v>107789.0625</v>
       </c>
     </row>
@@ -1842,16 +1848,16 @@
       <c r="B55" s="1">
         <v>10</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <f>C54</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D55" s="7">
-        <f>D54+C55</f>
+      <c r="D55" s="6">
+        <f t="shared" si="10"/>
         <v>133333.33333333334</v>
       </c>
-      <c r="E55" s="7">
-        <f t="shared" si="10"/>
+      <c r="E55" s="6">
+        <f t="shared" si="11"/>
         <v>109500.00000000001</v>
       </c>
     </row>
@@ -1859,16 +1865,16 @@
       <c r="B56" s="1">
         <v>11</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <f>C55</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D56" s="7">
-        <f>D55+C56</f>
+      <c r="D56" s="6">
+        <f t="shared" si="10"/>
         <v>135416.66666666669</v>
       </c>
-      <c r="E56" s="7">
-        <f t="shared" si="10"/>
+      <c r="E56" s="6">
+        <f t="shared" si="11"/>
         <v>111210.93750000001</v>
       </c>
     </row>
@@ -1876,16 +1882,16 @@
       <c r="B57" s="1">
         <v>12</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <f>C56</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D57" s="7">
-        <f>D56+C57</f>
+      <c r="D57" s="6">
+        <f t="shared" si="10"/>
         <v>137500.00000000003</v>
       </c>
-      <c r="E57" s="7">
-        <f t="shared" si="10"/>
+      <c r="E57" s="6">
+        <f t="shared" si="11"/>
         <v>112921.87500000003</v>
       </c>
     </row>
@@ -1893,16 +1899,16 @@
       <c r="B59" s="1">
         <v>1</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <f>C57</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <f>D57+C59</f>
         <v>139583.33333333337</v>
       </c>
-      <c r="E59" s="7">
-        <f t="shared" si="10"/>
+      <c r="E59" s="6">
+        <f t="shared" si="11"/>
         <v>114632.81250000004</v>
       </c>
     </row>
@@ -1910,16 +1916,16 @@
       <c r="B60" s="1">
         <v>2</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <f>C59</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <f>D59+C60</f>
         <v>141666.66666666672</v>
       </c>
-      <c r="E60" s="7">
-        <f t="shared" si="10"/>
+      <c r="E60" s="6">
+        <f t="shared" si="11"/>
         <v>116343.75000000004</v>
       </c>
     </row>
@@ -1927,16 +1933,16 @@
       <c r="B61" s="1">
         <v>3</v>
       </c>
-      <c r="C61" s="7">
-        <f t="shared" ref="C61:C70" si="11">C60</f>
+      <c r="C61" s="6">
+        <f t="shared" ref="C61:C70" si="12">C60</f>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D61" s="7">
-        <f t="shared" ref="D61:D70" si="12">D60+C61</f>
+      <c r="D61" s="6">
+        <f t="shared" ref="D61:D70" si="13">D60+C61</f>
         <v>143750.00000000006</v>
       </c>
-      <c r="E61" s="7">
-        <f t="shared" ref="E61:E70" si="13">D61*$C$30</f>
+      <c r="E61" s="6">
+        <f t="shared" ref="E61:E70" si="14">D61*$C$30</f>
         <v>118054.68750000006</v>
       </c>
     </row>
@@ -1944,16 +1950,16 @@
       <c r="B62" s="1">
         <v>4</v>
       </c>
-      <c r="C62" s="7">
-        <f t="shared" si="11"/>
+      <c r="C62" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D62" s="7">
-        <f t="shared" si="12"/>
+      <c r="D62" s="6">
+        <f t="shared" si="13"/>
         <v>145833.3333333334</v>
       </c>
-      <c r="E62" s="7">
-        <f t="shared" si="13"/>
+      <c r="E62" s="6">
+        <f t="shared" si="14"/>
         <v>119765.62500000006</v>
       </c>
     </row>
@@ -1961,16 +1967,16 @@
       <c r="B63" s="1">
         <v>5</v>
       </c>
-      <c r="C63" s="7">
-        <f t="shared" si="11"/>
+      <c r="C63" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D63" s="7">
-        <f t="shared" si="12"/>
+      <c r="D63" s="6">
+        <f t="shared" si="13"/>
         <v>147916.66666666674</v>
       </c>
-      <c r="E63" s="7">
-        <f t="shared" si="13"/>
+      <c r="E63" s="6">
+        <f t="shared" si="14"/>
         <v>121476.56250000007</v>
       </c>
     </row>
@@ -1978,16 +1984,16 @@
       <c r="B64" s="1">
         <v>6</v>
       </c>
-      <c r="C64" s="7">
-        <f t="shared" si="11"/>
+      <c r="C64" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D64" s="7">
-        <f t="shared" si="12"/>
+      <c r="D64" s="6">
+        <f t="shared" si="13"/>
         <v>150000.00000000009</v>
       </c>
-      <c r="E64" s="7">
-        <f t="shared" si="13"/>
+      <c r="E64" s="6">
+        <f t="shared" si="14"/>
         <v>123187.50000000007</v>
       </c>
     </row>
@@ -1995,16 +2001,16 @@
       <c r="B65" s="1">
         <v>7</v>
       </c>
-      <c r="C65" s="7">
-        <f t="shared" si="11"/>
+      <c r="C65" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D65" s="7">
-        <f t="shared" si="12"/>
+      <c r="D65" s="6">
+        <f t="shared" si="13"/>
         <v>152083.33333333343</v>
       </c>
-      <c r="E65" s="7">
-        <f t="shared" si="13"/>
+      <c r="E65" s="6">
+        <f t="shared" si="14"/>
         <v>124898.43750000009</v>
       </c>
     </row>
@@ -2012,16 +2018,16 @@
       <c r="B66" s="1">
         <v>8</v>
       </c>
-      <c r="C66" s="7">
-        <f t="shared" si="11"/>
+      <c r="C66" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D66" s="7">
-        <f t="shared" si="12"/>
+      <c r="D66" s="6">
+        <f t="shared" si="13"/>
         <v>154166.66666666677</v>
       </c>
-      <c r="E66" s="7">
-        <f t="shared" si="13"/>
+      <c r="E66" s="6">
+        <f t="shared" si="14"/>
         <v>126609.37500000009</v>
       </c>
     </row>
@@ -2029,16 +2035,16 @@
       <c r="B67" s="1">
         <v>9</v>
       </c>
-      <c r="C67" s="7">
-        <f t="shared" si="11"/>
+      <c r="C67" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D67" s="7">
-        <f t="shared" si="12"/>
+      <c r="D67" s="6">
+        <f t="shared" si="13"/>
         <v>156250.00000000012</v>
       </c>
-      <c r="E67" s="7">
-        <f t="shared" si="13"/>
+      <c r="E67" s="6">
+        <f t="shared" si="14"/>
         <v>128320.3125000001</v>
       </c>
     </row>
@@ -2046,16 +2052,16 @@
       <c r="B68" s="1">
         <v>10</v>
       </c>
-      <c r="C68" s="7">
-        <f t="shared" si="11"/>
+      <c r="C68" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D68" s="7">
-        <f t="shared" si="12"/>
+      <c r="D68" s="6">
+        <f t="shared" si="13"/>
         <v>158333.33333333346</v>
       </c>
-      <c r="E68" s="7">
-        <f t="shared" si="13"/>
+      <c r="E68" s="6">
+        <f t="shared" si="14"/>
         <v>130031.25000000012</v>
       </c>
     </row>
@@ -2063,16 +2069,16 @@
       <c r="B69" s="1">
         <v>11</v>
       </c>
-      <c r="C69" s="7">
-        <f t="shared" si="11"/>
+      <c r="C69" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D69" s="7">
-        <f t="shared" si="12"/>
+      <c r="D69" s="6">
+        <f t="shared" si="13"/>
         <v>160416.6666666668</v>
       </c>
-      <c r="E69" s="7">
-        <f t="shared" si="13"/>
+      <c r="E69" s="6">
+        <f t="shared" si="14"/>
         <v>131742.18750000012</v>
       </c>
     </row>
@@ -2080,16 +2086,16 @@
       <c r="B70" s="1">
         <v>12</v>
       </c>
-      <c r="C70" s="7">
-        <f t="shared" si="11"/>
+      <c r="C70" s="6">
+        <f t="shared" si="12"/>
         <v>2083.3333333333335</v>
       </c>
-      <c r="D70" s="7">
-        <f t="shared" si="12"/>
+      <c r="D70" s="6">
+        <f t="shared" si="13"/>
         <v>162500.00000000015</v>
       </c>
-      <c r="E70" s="7">
-        <f t="shared" si="13"/>
+      <c r="E70" s="6">
+        <f t="shared" si="14"/>
         <v>133453.12500000012</v>
       </c>
     </row>
@@ -2130,124 +2136,124 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="F2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="K2" s="28" t="s">
+      <c r="I2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="28"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>5000</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>5000</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>5000</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>600</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>600</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>600</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>16.190000000000001</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>16.190000000000001</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>16.190000000000001</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>16.190000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>309</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>309</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>309</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>309</v>
       </c>
     </row>
@@ -2257,124 +2263,124 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="C10" s="19"/>
+      <c r="E10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="H10" s="28" t="s">
+      <c r="F10" s="19"/>
+      <c r="H10" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="K10" s="28" t="s">
+      <c r="I10" s="19"/>
+      <c r="K10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="28"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>5000</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>5000</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>5000</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>600</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>600</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>600</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>16.190000000000001</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <v>16.190000000000001</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>16.190000000000001</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="5">
         <v>16.190000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>309</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <v>309</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="5">
         <v>309</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>309</v>
       </c>
     </row>
